--- a/Results/RQ1/different_type_categories.xlsx
+++ b/Results/RQ1/different_type_categories.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B3D0ED-C255-4858-88A7-CD4E4F086D82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16236127-2E53-4B10-BA90-E113A7B77946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8265" yWindow="2520" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,10 +222,10 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -594,7 +594,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -692,7 +692,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -790,7 +790,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -888,7 +888,7 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -986,7 +986,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1084,7 +1084,7 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <f>D3/D21</f>
         <v>0.47435563797436564</v>
       </c>
@@ -1284,11 +1284,11 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="8">
         <f t="shared" ref="D27:D43" si="2">E4/H4</f>
         <v>0.72324998667164264</v>
@@ -1307,11 +1307,11 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="8">
         <f t="shared" si="2"/>
         <v>0.80774276181917715</v>
@@ -1330,13 +1330,13 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <f>D6/D21</f>
         <v>0.1614349122925148</v>
       </c>
@@ -1358,11 +1358,11 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>0.21308352312606535</v>
@@ -1381,11 +1381,11 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="8">
         <f t="shared" si="2"/>
         <v>0.14829012217459447</v>
@@ -1404,13 +1404,13 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <f>D9/D21</f>
         <v>6.6269697559768304E-2</v>
       </c>
@@ -1432,11 +1432,11 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="8">
         <f t="shared" si="2"/>
         <v>0.16201763260586791</v>
@@ -1455,11 +1455,11 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>4.2068227015450513E-4</v>
@@ -1478,13 +1478,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f>D12/D21</f>
         <v>2.3690757183387718E-2</v>
       </c>
@@ -1506,11 +1506,11 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="8">
         <f t="shared" si="2"/>
         <v>5.3382609588337952E-2</v>
@@ -1529,11 +1529,11 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="8">
         <f t="shared" si="2"/>
         <v>3.8455107841498079E-3</v>
@@ -1552,13 +1552,13 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <f>D15/D21</f>
         <v>5.2902927586501837E-3</v>
       </c>
@@ -1580,11 +1580,11 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1603,11 +1603,11 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="10"/>
+      <c r="C40" s="9"/>
       <c r="D40" s="8">
         <f t="shared" si="2"/>
         <v>2.9090909090909089E-3</v>
@@ -1626,13 +1626,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <f>D18/D21</f>
         <v>0.26895870223131335</v>
       </c>
@@ -1654,11 +1654,11 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="8">
         <f t="shared" si="2"/>
         <v>0.19205163702416958</v>
@@ -1677,11 +1677,11 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="8">
         <f t="shared" si="2"/>
         <v>0.1519792511881303</v>
@@ -1702,24 +1702,24 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="18">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
